--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -24,18 +24,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>contrasena</t>
-  </si>
-  <si>
-    <t>Observacion</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Cod cliente</t>
   </si>
   <si>
-    <t>3534375</t>
+    <t>2240270</t>
+  </si>
+  <si>
+    <t>HoraInicioVisita</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>MinutosInicioVisita</t>
+  </si>
+  <si>
+    <t>HoraFinVisita</t>
+  </si>
+  <si>
+    <t>MinutosFinVisita</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>HoraEmpVisita</t>
+  </si>
+  <si>
+    <t>MinutosEmpVisita</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>Conforme</t>
   </si>
 </sst>
 </file>
@@ -77,10 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -361,41 +390,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Cod cliente</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Conforme</t>
+  </si>
+  <si>
+    <t>4656709</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +458,32 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -29,9 +29,6 @@
     <t>Cod cliente</t>
   </si>
   <si>
-    <t>2240270</t>
-  </si>
-  <si>
     <t>HoraInicioVisita</t>
   </si>
   <si>
@@ -68,7 +65,10 @@
     <t>Conforme</t>
   </si>
   <si>
-    <t>4656709</t>
+    <t>5802202</t>
+  </si>
+  <si>
+    <t>19499545</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,51 +411,51 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
       <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -463,25 +463,25 @@
         <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Cod cliente</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>Conforme</t>
-  </si>
-  <si>
-    <t>5802202</t>
   </si>
   <si>
     <t>19499545</t>
@@ -393,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,32 +455,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Cod cliente</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>19499545</t>
+  </si>
+  <si>
+    <t>40289</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +458,32 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Cod cliente</t>
   </si>
@@ -65,10 +65,7 @@
     <t>Conforme</t>
   </si>
   <si>
-    <t>19499545</t>
-  </si>
-  <si>
-    <t>40289</t>
+    <t>24681769</t>
   </si>
 </sst>
 </file>
@@ -393,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,32 +455,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Cod cliente</t>
   </si>
@@ -65,7 +65,10 @@
     <t>Conforme</t>
   </si>
   <si>
-    <t>24681769</t>
+    <t>3534375</t>
+  </si>
+  <si>
+    <t>19499545</t>
   </si>
 </sst>
 </file>
@@ -107,9 +110,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,28 +409,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -452,6 +457,32 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CajaPiuraCMAC2021\target\DatosExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPOSITORIO_ACTUAL\CajaPiuraCMAC2021\target\DatosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,10 +65,10 @@
     <t>Conforme</t>
   </si>
   <si>
-    <t>3534375</t>
-  </si>
-  <si>
-    <t>19499545</t>
+    <t>22114387</t>
+  </si>
+  <si>
+    <t>24681769</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">

--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\REPOSITORIO_ACTUAL\CajaPiuraCMAC2021\target\DatosExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CajaPiuraCMAC2021\target\DatosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Cod cliente</t>
   </si>
@@ -65,10 +65,7 @@
     <t>Conforme</t>
   </si>
   <si>
-    <t>22114387</t>
-  </si>
-  <si>
-    <t>24681769</t>
+    <t>1940821</t>
   </si>
 </sst>
 </file>
@@ -110,10 +107,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -395,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,28 +405,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -457,32 +453,6 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
     </row>

--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -65,7 +65,7 @@
     <t>Conforme</t>
   </si>
   <si>
-    <t>1940821</t>
+    <t>22296442</t>
   </si>
 </sst>
 </file>
@@ -107,10 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,11 +392,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -456,6 +455,25 @@
         <v>12</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Cod cliente</t>
   </si>
@@ -32,40 +32,43 @@
     <t>HoraInicioVisita</t>
   </si>
   <si>
+    <t>MinutosInicioVisita</t>
+  </si>
+  <si>
+    <t>HoraFinVisita</t>
+  </si>
+  <si>
+    <t>MinutosFinVisita</t>
+  </si>
+  <si>
+    <t>HoraEmpVisita</t>
+  </si>
+  <si>
+    <t>MinutosEmpVisita</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>22296442</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
     <t>00</t>
   </si>
   <si>
-    <t>MinutosInicioVisita</t>
-  </si>
-  <si>
-    <t>HoraFinVisita</t>
-  </si>
-  <si>
-    <t>MinutosFinVisita</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>HoraEmpVisita</t>
-  </si>
-  <si>
-    <t>MinutosEmpVisita</t>
-  </si>
-  <si>
-    <t>Detalle</t>
-  </si>
-  <si>
     <t>Conforme</t>
   </si>
   <si>
-    <t>22296442</t>
+    <t>7993234</t>
   </si>
 </sst>
 </file>
@@ -107,11 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,90 +393,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>11</v>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Cod cliente</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>Conforme</t>
-  </si>
-  <si>
-    <t>7993234</t>
   </si>
 </sst>
 </file>
@@ -393,9 +390,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -451,32 +450,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CajaPiuraCMAC2021\target\DatosExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMACPiura_2022\CMACPiura_2022\target\DatosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -50,9 +50,6 @@
     <t>Detalle</t>
   </si>
   <si>
-    <t>22296442</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Conforme</t>
+  </si>
+  <si>
+    <t>21838047</t>
   </si>
 </sst>
 </file>
@@ -107,9 +107,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,6 +398,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -425,29 +435,29 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -50,6 +50,9 @@
     <t>Detalle</t>
   </si>
   <si>
+    <t>15979240</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
@@ -63,9 +66,6 @@
   </si>
   <si>
     <t>Conforme</t>
-  </si>
-  <si>
-    <t>21838047</t>
   </si>
 </sst>
 </file>
@@ -110,7 +110,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,20 +393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -436,28 +425,28 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
+++ b/target/DatosExcel/DatosRegistrarInformeVisitaVerificacion.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMACPiura_2022\CMACPiura_2022\target\DatosExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProyectoAutomatizacion\CMACPiura_2022\target\DatosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10EB5C58-A7A2-4D43-B7A6-CD0BA56BC355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -50,9 +51,6 @@
     <t>Detalle</t>
   </si>
   <si>
-    <t>15979240</t>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
@@ -66,12 +64,15 @@
   </si>
   <si>
     <t>Conforme</t>
+  </si>
+  <si>
+    <t>25353633</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -390,14 +391,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,30 +426,30 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
